--- a/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
+++ b/Hybrid Keyword Driven/src/dataEngine/DataEngine.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -97,12 +97,6 @@
     <t>txtbx_Password</t>
   </si>
   <si>
-    <t>btn_Login</t>
-  </si>
-  <si>
-    <t>btn_Logout</t>
-  </si>
-  <si>
     <t>openBrowser</t>
   </si>
   <si>
@@ -122,6 +116,15 @@
   </si>
   <si>
     <t>waitFor</t>
+  </si>
+  <si>
+    <t>btn_LogIn</t>
+  </si>
+  <si>
+    <t>btn_LogOut</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,8 +517,11 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,8 +534,11 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,7 +555,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,7 +589,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,8 +619,11 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,10 +637,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,8 +653,11 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
